--- a/data/trans_orig/IP22D5_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP22D5_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8EEBF67-EEDC-4CE1-B6A1-736D5C8BB685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B98DBDF5-8CC0-4EAB-AA79-CA7CE165FB38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{15D60BEE-7F6F-4EA4-A0A6-465877D10B5C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E72D146E-89A7-448E-9968-EC02375D8307}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -113,46 +113,46 @@
     <t>92,42%</t>
   </si>
   <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
   </si>
   <si>
     <t>3,29%</t>
   </si>
   <si>
-    <t>15,83%</t>
+    <t>16,0%</t>
   </si>
   <si>
     <t>7,58%</t>
   </si>
   <si>
-    <t>39,33%</t>
+    <t>35,12%</t>
   </si>
   <si>
     <t>4,97%</t>
   </si>
   <si>
-    <t>18,0%</t>
+    <t>18,37%</t>
   </si>
   <si>
     <t>4,28%</t>
   </si>
   <si>
-    <t>18,8%</t>
+    <t>21,68%</t>
   </si>
   <si>
     <t>2,6%</t>
   </si>
   <si>
-    <t>11,39%</t>
+    <t>14,14%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -164,13 +164,13 @@
     <t>91,33%</t>
   </si>
   <si>
-    <t>62,35%</t>
+    <t>57,31%</t>
   </si>
   <si>
     <t>96,68%</t>
   </si>
   <si>
-    <t>85,84%</t>
+    <t>82,62%</t>
   </si>
   <si>
     <t>9,49%</t>
@@ -179,13 +179,13 @@
     <t>8,67%</t>
   </si>
   <si>
-    <t>37,65%</t>
+    <t>42,69%</t>
   </si>
   <si>
     <t>3,32%</t>
   </si>
   <si>
-    <t>14,16%</t>
+    <t>17,38%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -200,7 +200,7 @@
     <t>94,95%</t>
   </si>
   <si>
-    <t>74,75%</t>
+    <t>69,75%</t>
   </si>
   <si>
     <t>92,94%</t>
@@ -209,13 +209,13 @@
     <t>97,76%</t>
   </si>
   <si>
-    <t>89,79%</t>
+    <t>89,11%</t>
   </si>
   <si>
     <t>5,05%</t>
   </si>
   <si>
-    <t>25,25%</t>
+    <t>30,25%</t>
   </si>
   <si>
     <t>7,06%</t>
@@ -224,61 +224,61 @@
     <t>2,24%</t>
   </si>
   <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
     <t>10,21%</t>
   </si>
   <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
     <t>3,16%</t>
   </si>
   <si>
-    <t>10,34%</t>
+    <t>11,36%</t>
   </si>
   <si>
     <t>2,79%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
   </si>
   <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>5,74%</t>
+    <t>5,41%</t>
   </si>
   <si>
     <t>2,99%</t>
@@ -287,7 +287,7 @@
     <t>0,54%</t>
   </si>
   <si>
-    <t>3,02%</t>
+    <t>3,12%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -702,7 +702,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEEA9B71-91CE-42C8-924E-52F17EC2F228}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D025F07-4714-471F-9E6B-7329C6699602}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/IP22D5_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP22D5_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B98DBDF5-8CC0-4EAB-AA79-CA7CE165FB38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E6A2B7F-BA6B-4B7E-BE12-0F5EBFD6050A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E72D146E-89A7-448E-9968-EC02375D8307}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DE5DF83D-EAD2-4473-A972-31F5A9D48F46}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="86">
   <si>
     <t>Menores que, necesitándolo, no pudo recibir atención médica mental (psiquiatra) en 2023 (Tasa respuesta: 6,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,15 +74,15 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>84,31%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
     <t>92,07%</t>
   </si>
   <si>
@@ -95,12 +95,12 @@
     <t>0%</t>
   </si>
   <si>
+    <t>14,51%</t>
+  </si>
+  <si>
     <t>15,69%</t>
   </si>
   <si>
-    <t>14,51%</t>
-  </si>
-  <si>
     <t>7,93%</t>
   </si>
   <si>
@@ -110,82 +110,85 @@
     <t>3-7</t>
   </si>
   <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
     <t>90,51%</t>
   </si>
   <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
   </si>
   <si>
     <t>9,49%</t>
   </si>
   <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -197,34 +200,34 @@
     <t>12-15</t>
   </si>
   <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
     <t>92,94%</t>
   </si>
   <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
   </si>
   <si>
     <t>7,06%</t>
   </si>
   <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
   </si>
   <si>
     <t>10,53%</t>
@@ -233,61 +236,61 @@
     <t>4,34%</t>
   </si>
   <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
   </si>
   <si>
     <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -702,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D025F07-4714-471F-9E6B-7329C6699602}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42389C8-24B7-4DD4-9E50-90165861C59F}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -820,10 +823,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="7">
-        <v>5964</v>
+        <v>7002</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -835,10 +838,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>6818</v>
+        <v>6261</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -853,7 +856,7 @@
         <v>23</v>
       </c>
       <c r="N4" s="7">
-        <v>12781</v>
+        <v>13262</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
@@ -973,25 +976,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7">
+        <v>7002</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
         <v>11</v>
       </c>
-      <c r="D7" s="7">
-        <v>5964</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7">
-        <v>12</v>
-      </c>
       <c r="I7" s="7">
-        <v>6818</v>
+        <v>6261</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -1006,7 +1009,7 @@
         <v>23</v>
       </c>
       <c r="N7" s="7">
-        <v>12781</v>
+        <v>13262</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -1026,10 +1029,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D8" s="7">
-        <v>10883</v>
+        <v>7473</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>24</v>
@@ -1041,16 +1044,16 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I8" s="7">
-        <v>7014</v>
+        <v>11622</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>11</v>
@@ -1059,16 +1062,16 @@
         <v>26</v>
       </c>
       <c r="N8" s="7">
-        <v>17896</v>
+        <v>19096</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1080,46 +1083,46 @@
         <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>388</v>
+        <v>586</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
       </c>
       <c r="I9" s="7">
-        <v>575</v>
+        <v>396</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
       </c>
       <c r="N9" s="7">
-        <v>963</v>
+        <v>981</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1128,49 +1131,49 @@
         <v>22</v>
       </c>
       <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="7">
-        <v>504</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="I10" s="7">
+        <v>519</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1179,10 +1182,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D11" s="7">
-        <v>11775</v>
+        <v>8059</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -1194,10 +1197,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I11" s="7">
-        <v>7589</v>
+        <v>12537</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -1212,7 +1215,7 @@
         <v>29</v>
       </c>
       <c r="N11" s="7">
-        <v>19363</v>
+        <v>20596</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -1226,52 +1229,52 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>12</v>
+      </c>
+      <c r="D12" s="7">
+        <v>8669</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="7">
         <v>19</v>
       </c>
-      <c r="D12" s="7">
-        <v>15412</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="I12" s="7">
+        <v>16719</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7">
-        <v>12</v>
-      </c>
-      <c r="I12" s="7">
-        <v>8722</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="K12" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
         <v>31</v>
       </c>
       <c r="N12" s="7">
-        <v>24134</v>
+        <v>25388</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>11</v>
@@ -1283,49 +1286,49 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>838</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>828</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>828</v>
+        <v>838</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1346,7 +1349,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1361,7 +1364,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -1376,7 +1379,7 @@
         <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1385,25 +1388,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>13</v>
+      </c>
+      <c r="D15" s="7">
+        <v>9507</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
         <v>19</v>
       </c>
-      <c r="D15" s="7">
-        <v>15412</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
-        <v>13</v>
-      </c>
       <c r="I15" s="7">
-        <v>9550</v>
+        <v>16719</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -1418,7 +1421,7 @@
         <v>32</v>
       </c>
       <c r="N15" s="7">
-        <v>24962</v>
+        <v>26226</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -1432,52 +1435,52 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D16" s="7">
-        <v>15445</v>
+        <v>23598</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7">
+        <v>16</v>
+      </c>
+      <c r="I16" s="7">
+        <v>16906</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="H16" s="7">
-        <v>26</v>
-      </c>
-      <c r="I16" s="7">
-        <v>20404</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="M16" s="7">
         <v>42</v>
       </c>
       <c r="N16" s="7">
-        <v>35849</v>
+        <v>40504</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>11</v>
@@ -1489,49 +1492,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>821</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>59</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>821</v>
+        <v>850</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1552,7 +1555,7 @@
         <v>18</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -1567,7 +1570,7 @@
         <v>18</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -1582,7 +1585,7 @@
         <v>18</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1591,10 +1594,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D19" s="7">
-        <v>16266</v>
+        <v>23598</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -1606,10 +1609,10 @@
         <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I19" s="7">
-        <v>20404</v>
+        <v>17756</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -1624,7 +1627,7 @@
         <v>43</v>
       </c>
       <c r="N19" s="7">
-        <v>36670</v>
+        <v>41354</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
@@ -1647,22 +1650,22 @@
         <v>61</v>
       </c>
       <c r="D20" s="7">
-        <v>47703</v>
+        <v>46742</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="H20" s="7">
         <v>61</v>
       </c>
       <c r="I20" s="7">
-        <v>42957</v>
+        <v>51507</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>68</v>
@@ -1671,22 +1674,22 @@
         <v>69</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="M20" s="7">
         <v>122</v>
       </c>
       <c r="N20" s="7">
-        <v>90661</v>
+        <v>98249</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1698,46 +1701,46 @@
         <v>2</v>
       </c>
       <c r="D21" s="7">
-        <v>1209</v>
+        <v>1424</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
       </c>
       <c r="I21" s="7">
-        <v>1403</v>
+        <v>1246</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
       </c>
       <c r="N21" s="7">
-        <v>2612</v>
+        <v>2670</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1746,49 +1749,49 @@
         <v>22</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>504</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>80</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>519</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1797,25 +1800,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>63</v>
+      </c>
+      <c r="D23" s="7">
+        <v>48166</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="7">
         <v>64</v>
       </c>
-      <c r="D23" s="7">
-        <v>49417</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="7">
-        <v>63</v>
-      </c>
       <c r="I23" s="7">
-        <v>44360</v>
+        <v>53272</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>13</v>
@@ -1830,7 +1833,7 @@
         <v>127</v>
       </c>
       <c r="N23" s="7">
-        <v>93777</v>
+        <v>101438</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>13</v>
@@ -1844,7 +1847,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
